--- a/output/AAAA_EV_JPN_CASE1/File Log.xlsx
+++ b/output/AAAA_EV_JPN_CASE1/File Log.xlsx
@@ -40,18 +40,12 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00808080"/>
-        <bgColor rgb="00808080"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -81,16 +75,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -456,7 +446,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,10 +454,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="25" customWidth="1" min="1" max="1"/>
-    <col width="25" customWidth="1" min="2" max="2"/>
-    <col width="25" customWidth="1" min="3" max="3"/>
-    <col width="25" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="1" max="1"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="8" customWidth="1" min="4" max="4"/>
     <col width="11" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
@@ -498,46 +488,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>関連表1_B(操安台上)_XQ2.xlsx</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>関連表2_B(操安台上)_XQ2.xlsx</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>関連表3_B(操安台上)_XQ2.xlsx</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>関連表4_B(操安台上)_XQ2.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>関連表1_M(乗員判別)_XR6.xlsx</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>関連表2_M(乗員判別)_XR6.xlsx</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>関連表3_M(乗員判別)_XR6.xlsx</t>
-        </is>
-      </c>
-      <c r="D3" s="3" t="n"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -595,7 +545,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y3"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -603,230 +553,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="22.4" customWidth="1" min="1" max="1"/>
+    <col width="4.7" customWidth="1" min="1" max="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>file_name</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>関連表VC_</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>関連表PT1_</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>関連表PT2_</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>関連表PFC_</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>CADICS No.(VC)</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>CADICS No.(PT1)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>CADICS No.(PT2)</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>CADICS No.(PFC)</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Name Table(VC)</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Name Table(PT1)</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Name Table(PT2)</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Name Table(PFC)</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>配車使用欄(VC)</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>配車使用欄(PT1)</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>配車使用欄(PT2)</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>配車使用欄(PFC)</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>Table1-market(VC)</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>Table1-market(PT1)</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>Table1-market(PT2)</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>Table1-market(PFC)</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>WTC(VC)</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>WTC(PT1)</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>WTC(PT2)</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>WTC(PFC)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>関連表3_B(操安台上)_XQ2.xlsx</t>
-        </is>
-      </c>
-      <c r="B2" s="4" t="n"/>
-      <c r="C2" s="4" t="n"/>
-      <c r="D2" s="4" t="inlineStr">
-        <is>
-          <t>✕</t>
-        </is>
-      </c>
-      <c r="E2" s="4" t="n"/>
-      <c r="F2" s="4" t="n"/>
-      <c r="G2" s="4" t="n"/>
-      <c r="H2" s="4" t="n"/>
-      <c r="I2" s="4" t="n"/>
-      <c r="J2" s="4" t="inlineStr">
-        <is>
-          <t>✕</t>
-        </is>
-      </c>
-      <c r="K2" s="4" t="inlineStr">
-        <is>
-          <t>✕</t>
-        </is>
-      </c>
-      <c r="L2" s="4" t="n"/>
-      <c r="M2" s="4" t="inlineStr">
-        <is>
-          <t>✕</t>
-        </is>
-      </c>
-      <c r="N2" s="4" t="n"/>
-      <c r="O2" s="4" t="n"/>
-      <c r="P2" s="4" t="n"/>
-      <c r="Q2" s="4" t="n"/>
-      <c r="R2" s="4" t="n"/>
-      <c r="S2" s="4" t="n"/>
-      <c r="T2" s="4" t="n"/>
-      <c r="U2" s="4" t="n"/>
-      <c r="V2" s="4" t="n"/>
-      <c r="W2" s="4" t="n"/>
-      <c r="X2" s="4" t="n"/>
-      <c r="Y2" s="4" t="n"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>関連表3_M(乗員判別)_XR6.xlsx</t>
-        </is>
-      </c>
-      <c r="B3" s="4" t="n"/>
-      <c r="C3" s="4" t="n"/>
-      <c r="D3" s="4" t="inlineStr">
-        <is>
-          <t>✕</t>
-        </is>
-      </c>
-      <c r="E3" s="4" t="n"/>
-      <c r="F3" s="4" t="n"/>
-      <c r="G3" s="4" t="n"/>
-      <c r="H3" s="4" t="n"/>
-      <c r="I3" s="4" t="n"/>
-      <c r="J3" s="4" t="inlineStr">
-        <is>
-          <t>✕</t>
-        </is>
-      </c>
-      <c r="K3" s="4" t="inlineStr">
-        <is>
-          <t>✕</t>
-        </is>
-      </c>
-      <c r="L3" s="4" t="n"/>
-      <c r="M3" s="4" t="inlineStr">
-        <is>
-          <t>✕</t>
-        </is>
-      </c>
-      <c r="N3" s="4" t="n"/>
-      <c r="O3" s="4" t="n"/>
-      <c r="P3" s="4" t="n"/>
-      <c r="Q3" s="4" t="n"/>
-      <c r="R3" s="4" t="n"/>
-      <c r="S3" s="4" t="n"/>
-      <c r="T3" s="4" t="n"/>
-      <c r="U3" s="4" t="n"/>
-      <c r="V3" s="4" t="n"/>
-      <c r="W3" s="4" t="n"/>
-      <c r="X3" s="4" t="n"/>
-      <c r="Y3" s="4" t="n"/>
-    </row>
+    <row r="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
